--- a/dataset/UKRR/v5/DataSet_v5_0_For Renal units.xlsx
+++ b/dataset/UKRR/v5/DataSet_v5_0_For Renal units.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\UKRDC\resources\dataset\UKRR\v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EC2C26-C58F-4D65-A289-3874FD302739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891DC490-BF93-4E71-AA25-45A847777FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -7667,6 +7667,9 @@
     <xf numFmtId="17" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7678,9 +7681,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="285" t="s">
+      <c r="G5" s="281" t="s">
         <v>1835</v>
       </c>
       <c r="H5" s="40"/>
@@ -12921,20 +12921,20 @@
       </c>
     </row>
     <row r="2" spans="1:26" s="151" customFormat="1" ht="23.5">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="284" t="s">
         <v>993</v>
       </c>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
+      <c r="B2" s="284"/>
+      <c r="C2" s="284"/>
       <c r="D2" s="149"/>
       <c r="E2" s="150" t="s">
         <v>994</v>
       </c>
       <c r="F2" s="150"/>
-      <c r="H2" s="281" t="s">
+      <c r="H2" s="282" t="s">
         <v>995</v>
       </c>
-      <c r="I2" s="281"/>
+      <c r="I2" s="282"/>
       <c r="K2" s="148" t="s">
         <v>1630</v>
       </c>
@@ -12946,19 +12946,19 @@
       </c>
       <c r="Q2" s="148"/>
       <c r="R2" s="152"/>
-      <c r="S2" s="281" t="s">
+      <c r="S2" s="282" t="s">
         <v>996</v>
       </c>
-      <c r="T2" s="281"/>
-      <c r="V2" s="281" t="s">
+      <c r="T2" s="282"/>
+      <c r="V2" s="282" t="s">
         <v>997</v>
       </c>
-      <c r="W2" s="281"/>
+      <c r="W2" s="282"/>
       <c r="X2" s="153"/>
-      <c r="Y2" s="281" t="s">
+      <c r="Y2" s="282" t="s">
         <v>998</v>
       </c>
-      <c r="Z2" s="281"/>
+      <c r="Z2" s="282"/>
     </row>
     <row r="3" spans="1:26" ht="21" customHeight="1">
       <c r="A3" s="92" t="s">
@@ -12998,10 +12998,10 @@
       <c r="B4" s="92"/>
       <c r="C4" s="95"/>
       <c r="D4" s="96"/>
-      <c r="E4" s="282" t="s">
+      <c r="E4" s="283" t="s">
         <v>1592</v>
       </c>
-      <c r="F4" s="282"/>
+      <c r="F4" s="283"/>
       <c r="H4" s="92" t="s">
         <v>1001</v>
       </c>
@@ -15220,7 +15220,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.5"/>
   <cols>
@@ -15248,11 +15250,11 @@
         <v>1358</v>
       </c>
       <c r="H1" s="110"/>
-      <c r="J1" s="284" t="s">
+      <c r="J1" s="285" t="s">
         <v>993</v>
       </c>
-      <c r="K1" s="284"/>
-      <c r="L1" s="284"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
     </row>
     <row r="2" spans="1:12" ht="16" thickBot="1">
       <c r="A2" s="111" t="s">
@@ -19761,8 +19763,8 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -20083,7 +20085,7 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
